--- a/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0004.xlsx
+++ b/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0004.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Step Name</t>
   </si>
@@ -49,143 +49,6 @@
   </si>
   <si>
     <t>Function returns a ScanParameter object (scan_type=1, scan_interval=80, scan_window=48).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On BLE Peripheral start advertising
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>adv_data = [0x02, 0x01, 0x06, 0x05, 0x09, 0x54, 0x65, 0x73, 0x74]
-scan_resp_data = [0x05, 0x14, 0xAA, 0xBB, 0xCC, 0xDD]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&gt;&gt; remote.ble_set_advertising_enable(True, adv_data, scan_resp_data)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Project name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: EDDINGTON
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: BLE_GAP_DISC_0004
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Domain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: GAP Central - Discovery procedures</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Conditions: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">x1 DUT (BC310x) + x1 BLE Peripheral
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;Target&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check discovery procedure with Active scanning</t>
-    </r>
   </si>
   <si>
     <r>
@@ -285,6 +148,194 @@
 - There should be a least one ScanResult object with:
        • addr attribute matching the BLE Peripheral address.
        • raw_data attribute matching the scan response data of the BLE Peripheral.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: EDDINGTON
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: BLE_GAP_DISC_0004
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: GAP Central - Discovery procedures</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Conditions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">x1 DUT (BC310x) + x1 BLE Peripheral
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Target&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check if the scan resposnse data is corretly parsed with active scanning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On BLE Peripheral start advertising
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adv_data = [0x02, 0x01, 0x06, 0x05, 0x09, 0x54, 0x65, 0x73, 0x74]
+(flags=0x06, name="Test")
+scan_resp_data = [0x05, 0x14, 0xAA, 0xBB, 0xCC, 0xDD]
+(List of 16-bit Service Solicitation UUIDs: 0xBBAA, 0xDDCC)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;&gt; remote.ble_set_advertising_enable(True, adv_data, scan_resp_data)</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start scanning BT devices in the area with Parsed advertising data response
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check that module receives the advertising data and the scan response data of the BLE Peripheral (The data will only display with AD type is 0x08 or 0x09)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;&gt; dut.ble_scan(10, BleInterface.SCAN_RESULT_FORMAT_DEFAULT)</t>
+    </r>
+  </si>
+  <si>
+    <t>Function returns a list of ScanResult objects.
+- There should be a least one ScanResult object with:
+       • addr attribute matching the BLE Peripheral address.
+       • flag attribute matching the flags in the advertising data of the BLE Peripheral.
+       • name attribute matching the name in the advertising data of the BLE Peripheral.
+- There should be a least one ScanResult object with:
+       • addr attribute matching the BLE Peripheral address.
+       • flag attribute matching the flags in the advertising data of the BLE Peripheral.
+       • Adv data is empty due to AD type 0x14 does not display in parsed data reponse mode</t>
   </si>
 </sst>
 </file>
@@ -367,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,12 +437,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,17 +757,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -749,19 +801,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -773,15 +825,27 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7"/>
     </row>
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
